--- a/Uber/3_Salary/Salary Comparison (Autosaved).xlsx
+++ b/Uber/3_Salary/Salary Comparison (Autosaved).xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8805" windowHeight="3090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8805" windowHeight="3090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Data_ELVT" sheetId="2" r:id="rId2"/>
+    <sheet name="Moving" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
   <si>
     <t>Salary</t>
   </si>
@@ -289,6 +290,39 @@
   </si>
   <si>
     <t>Uber Credits</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Moving Supplies</t>
+  </si>
+  <si>
+    <t>Mileage</t>
+  </si>
+  <si>
+    <t>Cargo Van Rental</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>Airport - Home</t>
+  </si>
+  <si>
+    <t>Car Rental</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>Home - Airport</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Apartment Scouting</t>
   </si>
 </sst>
 </file>
@@ -440,7 +474,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -540,6 +574,7 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -825,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -2425,4 +2460,150 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <f>3*150</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <f>60*3</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <f>((1200+600)/25)*3</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16">
+        <f>3*150</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <f>4*60</f>
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Uber/3_Salary/Salary Comparison (Autosaved).xlsx
+++ b/Uber/3_Salary/Salary Comparison (Autosaved).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseto\Documents\Kelburn_Repository\Uber\3_Salary\"/>
@@ -15,6 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Data_ELVT" sheetId="2" r:id="rId2"/>
     <sheet name="Moving" sheetId="3" r:id="rId3"/>
+    <sheet name="Change" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="121">
   <si>
     <t>Salary</t>
   </si>
@@ -307,34 +309,101 @@
     <t>Move</t>
   </si>
   <si>
-    <t>Airport - Home</t>
-  </si>
-  <si>
     <t>Car Rental</t>
   </si>
   <si>
     <t>Flight</t>
   </si>
   <si>
-    <t>Home - Airport</t>
-  </si>
-  <si>
     <t>Activity</t>
   </si>
   <si>
     <t>Apartment Scouting</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>% Increase</t>
+  </si>
+  <si>
+    <t>DOT</t>
+  </si>
+  <si>
+    <t>UBER</t>
+  </si>
+  <si>
+    <t>Mover</t>
+  </si>
+  <si>
+    <t>Pods</t>
+  </si>
+  <si>
+    <t>Uhaul</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Option 1</t>
+  </si>
+  <si>
+    <t>Option 2</t>
+  </si>
+  <si>
+    <t>Option 3</t>
+  </si>
+  <si>
+    <t>Hand Truck</t>
+  </si>
+  <si>
+    <t>Home - SAN</t>
+  </si>
+  <si>
+    <t>SAN - Home</t>
+  </si>
+  <si>
+    <t>Car Move</t>
+  </si>
+  <si>
+    <t>Box Truck</t>
+  </si>
+  <si>
+    <t>San Diego to PA</t>
+  </si>
+  <si>
+    <t>Ship Car</t>
+  </si>
+  <si>
+    <t>Boxes</t>
+  </si>
+  <si>
+    <t>Shorty Wardrobe</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Bankers Box Lids</t>
+  </si>
+  <si>
+    <t>Moving Blankets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -474,7 +543,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -575,6 +644,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -858,50 +931,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA34"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="7" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="K1" s="14"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="I2" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -909,64 +986,68 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="I3" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="J3" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="42" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="35" t="s">
+      <c r="M3" s="6"/>
+      <c r="N3" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="6"/>
+      <c r="P3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="V3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="W3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="X3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="Z3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="AA3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AB3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AC3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
@@ -974,74 +1055,77 @@
         <v>96000</v>
       </c>
       <c r="C4" s="7">
+        <v>96000</v>
+      </c>
+      <c r="E4" s="7">
         <v>120000</v>
       </c>
-      <c r="D4" s="7">
+      <c r="F4" s="7">
         <v>140000</v>
       </c>
-      <c r="E4" s="7">
+      <c r="G4" s="7">
         <f>140000+5000</f>
         <v>145000</v>
       </c>
-      <c r="F4" s="7">
+      <c r="H4" s="7">
         <v>140000</v>
       </c>
-      <c r="G4" s="38">
-        <f>F4+(SUM(L5:L6))</f>
-        <v>162350.09376263586</v>
-      </c>
-      <c r="H4" s="39">
-        <f>F4</f>
+      <c r="I4" s="38">
+        <f>H4+(SUM(N5:N6))</f>
+        <v>165281.4211064674</v>
+      </c>
+      <c r="J4" s="39">
+        <f>H4</f>
         <v>140000</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="38">
+      <c r="K4" s="7"/>
+      <c r="L4" s="38">
         <v>10000</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="1">
-        <f>(G4-F4)/F4</f>
-        <v>0.15964352687597047</v>
-      </c>
       <c r="M4" s="7"/>
-      <c r="N4" s="7">
-        <f>E4-B4</f>
+      <c r="N4" s="1">
+        <f>(I4-H4)/H4</f>
+        <v>0.18058157933191002</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7">
+        <f>G4-B4</f>
         <v>49000</v>
       </c>
-      <c r="O4" s="1">
-        <f>(E4-B4)/B4</f>
+      <c r="Q4" s="1">
+        <f>(G4-B4)/B4</f>
         <v>0.51041666666666663</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>15</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>150</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <f>52/3</f>
         <v>17.333333333333332</v>
       </c>
-      <c r="V4" s="7">
-        <f>U4*T4</f>
+      <c r="X4" s="7">
+        <f>W4*V4</f>
         <v>2600</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>24</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>8</v>
       </c>
-      <c r="Z4" s="10">
-        <f>((B4*0.15))/Y4</f>
+      <c r="AB4" s="10">
+        <f>((B4*0.15))/AA4</f>
         <v>1800</v>
       </c>
-      <c r="AA4" s="14">
-        <f>(Z4*Y4)*0.15</f>
+      <c r="AC4" s="14">
+        <f>(AB4*AA4)*0.15</f>
         <v>2160</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1050,126 +1134,134 @@
         <v>5760</v>
       </c>
       <c r="C5" s="7">
-        <f>C4*0.1</f>
+        <f>C4*0.06</f>
+        <v>5760</v>
+      </c>
+      <c r="E5" s="7">
+        <f>E4*0.1</f>
         <v>12000</v>
       </c>
-      <c r="D5" s="7">
-        <f>D4*0.15</f>
+      <c r="F5" s="7">
+        <f>F4*0.15</f>
         <v>21000</v>
       </c>
-      <c r="E5" s="7">
+      <c r="G5" s="7">
         <v>40000</v>
       </c>
-      <c r="F5" s="7">
-        <f>(40000*0.8*V18)+(0.2*40000)</f>
+      <c r="H5" s="7">
+        <f>(40000*0.8*X18)+(0.2*40000)</f>
         <v>32306.542956521738</v>
       </c>
-      <c r="G5" s="7">
-        <f>F5</f>
+      <c r="I5" s="7">
+        <f>H5</f>
         <v>32306.542956521738</v>
       </c>
-      <c r="H5" s="7">
-        <f>F5</f>
+      <c r="J5" s="7">
+        <f>H5</f>
         <v>32306.542956521738</v>
       </c>
-      <c r="I5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="34">
-        <f>E5-F5</f>
+      <c r="M5" s="7"/>
+      <c r="N5" s="34">
+        <f>G5-H5</f>
         <v>7693.4570434782618</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="7">
-        <f>E5-B5</f>
+      <c r="O5" s="34"/>
+      <c r="P5" s="7">
+        <f>G5-B5</f>
         <v>34240</v>
       </c>
-      <c r="O5" s="1">
-        <f>(E5-B5)/B5</f>
+      <c r="Q5" s="1">
+        <f>(G5-B5)/B5</f>
         <v>5.9444444444444446</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>18</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>80</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>12</v>
       </c>
-      <c r="V5" s="7">
-        <f>U5*T5</f>
+      <c r="X5" s="7">
+        <f>W5*V5</f>
         <v>960</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Z5" t="s">
         <v>29</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>8</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>50</v>
       </c>
-      <c r="AA5">
-        <f>Z5*Y5</f>
+      <c r="AC5">
+        <f>AB5*AA5</f>
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7">
-        <f>SUM(AA4:AA5)</f>
+        <f>SUM($AC$4:$AC$5)</f>
         <v>2560</v>
       </c>
       <c r="C6" s="7">
+        <f>SUM($AC$4:$AC$5)</f>
+        <v>2560</v>
+      </c>
+      <c r="E6" s="7">
         <v>20000</v>
       </c>
-      <c r="D6" s="7">
+      <c r="F6" s="7">
         <v>20000</v>
       </c>
-      <c r="E6" s="7">
-        <f>0.25*5000*T15</f>
-        <v>60962.500000000007</v>
-      </c>
-      <c r="F6" s="7">
-        <f>E6*V18</f>
-        <v>46305.863280842394</v>
-      </c>
       <c r="G6" s="7">
-        <f>F6</f>
-        <v>46305.863280842394</v>
-      </c>
-      <c r="H6" s="40">
-        <f>F6+(SUM(L5:L6))</f>
-        <v>68655.957043478265</v>
-      </c>
-      <c r="I6" s="41">
-        <f>SUM(L5:L6)/W15</f>
-        <v>603.32785578048311</v>
-      </c>
-      <c r="J6" s="7">
-        <f>K6*W15</f>
+        <f>0.25*6000*V15</f>
+        <v>73155</v>
+      </c>
+      <c r="H6" s="7">
+        <f>G6*X18</f>
+        <v>55567.035937010871</v>
+      </c>
+      <c r="I6" s="7">
+        <f>H6</f>
+        <v>55567.035937010871</v>
+      </c>
+      <c r="J6" s="40">
+        <f>H6+(SUM(N5:N6))</f>
+        <v>80848.457043478265</v>
+      </c>
+      <c r="K6" s="41">
+        <f>SUM(N5:N6)/Y15</f>
+        <v>682.45734220354097</v>
+      </c>
+      <c r="L6" s="7">
+        <f>M6*Y15</f>
         <v>11113.407187402174</v>
       </c>
-      <c r="K6" s="41">
+      <c r="M6" s="41">
         <v>300</v>
       </c>
-      <c r="L6" s="34">
-        <f>E6-F6</f>
-        <v>14656.636719157614</v>
-      </c>
-      <c r="M6" s="34"/>
-      <c r="N6" s="7">
-        <f>E6-B6</f>
-        <v>58402.500000000007</v>
-      </c>
-      <c r="O6" s="1">
-        <f>(E6-B6)/B6</f>
-        <v>22.813476562500004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="N6" s="34">
+        <f>G6-H6</f>
+        <v>17587.964062989129</v>
+      </c>
+      <c r="O6" s="34"/>
+      <c r="P6" s="7">
+        <f>G6-B6</f>
+        <v>70595</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>(G6-B6)/B6</f>
+        <v>27.576171875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>25</v>
       </c>
@@ -1177,165 +1269,164 @@
         <v>3286.59</v>
       </c>
       <c r="C7" s="7">
-        <f>C4*0.03</f>
+        <v>3286.59</v>
+      </c>
+      <c r="E7" s="7">
+        <f>E4*0.03</f>
         <v>3600</v>
       </c>
-      <c r="D7" s="7">
+      <c r="F7" s="7">
         <f>12*300</f>
         <v>3600</v>
       </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
       <c r="G7" s="7">
         <v>0</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
       <c r="K7" s="7"/>
-      <c r="N7" s="7">
-        <f>E7-B7</f>
+      <c r="M7" s="7"/>
+      <c r="P7" s="7">
+        <f>G7-B7</f>
         <v>-3286.59</v>
       </c>
-      <c r="O7" s="1">
-        <f>(E7-B7)/B7</f>
+      <c r="Q7" s="1">
+        <f>(G7-B7)/B7</f>
         <v>-1</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="X7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="7">
+      <c r="E8" s="7">
         <v>10000</v>
       </c>
-      <c r="D8" s="7">
+      <c r="F8" s="7">
         <v>10000</v>
       </c>
-      <c r="E8" s="7">
+      <c r="G8" s="7">
         <v>0</v>
       </c>
-      <c r="F8" s="7">
+      <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="G8" s="7">
+      <c r="I8" s="7">
         <v>3000</v>
       </c>
-      <c r="H8" s="7">
+      <c r="J8" s="7">
         <v>3000</v>
       </c>
-      <c r="I8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="O8" s="1"/>
-      <c r="S8" t="s">
+      <c r="M8" s="7"/>
+      <c r="Q8" s="1"/>
+      <c r="U8" t="s">
         <v>21</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>10</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <f>(52-4)*5</f>
         <v>240</v>
       </c>
-      <c r="V8" s="7">
-        <f>U8*T8</f>
+      <c r="X8" s="7">
+        <f>W8*V8</f>
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
       <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="M9" s="7"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="7">
-        <f>$V$11</f>
+        <f>$X$11</f>
         <v>8400</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="C10" s="7">
+        <f>$X$11</f>
+        <v>8400</v>
+      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
       <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="N10" s="7">
-        <f>E10-B10</f>
+      <c r="M10" s="7"/>
+      <c r="P10" s="7">
+        <f>G10-B10</f>
         <v>-8400</v>
       </c>
-      <c r="O10" s="1">
-        <f>(E10-B10)/B10</f>
+      <c r="Q10" s="1">
+        <f>(G10-B10)/B10</f>
         <v>-1</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V10" s="9" t="s">
+      <c r="X10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="S11" t="s">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="U11" t="s">
         <v>2</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <f>50*8</f>
         <v>400</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>21</v>
       </c>
-      <c r="V11" s="7">
-        <f>U11*T11</f>
+      <c r="X11" s="7">
+        <f>W11*V11</f>
         <v>8400</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7">
-        <f t="shared" ref="C12:H12" si="0">$V$8</f>
-        <v>2400</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
       <c r="E12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E12:J12" si="0">$X$8</f>
         <v>2400</v>
       </c>
       <c r="F12" s="7">
@@ -1350,88 +1441,88 @@
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
       <c r="K12" s="7"/>
-      <c r="N12" s="7">
-        <f>E12-B12</f>
+      <c r="M12" s="7"/>
+      <c r="P12" s="7">
+        <f>G12-B12</f>
         <v>2400</v>
       </c>
-      <c r="O12" s="1" t="e">
-        <f>(E12-B12)/B12</f>
+      <c r="Q12" s="1" t="e">
+        <f>(G12-B12)/B12</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="7">
+      <c r="E13" s="7">
         <f>12*300</f>
         <v>3600</v>
       </c>
-      <c r="D13" s="7">
+      <c r="F13" s="7">
         <f>12*300</f>
         <v>3600</v>
       </c>
-      <c r="E13" s="7">
+      <c r="G13" s="7">
         <f>200*12</f>
         <v>2400</v>
       </c>
-      <c r="F13" s="7">
+      <c r="H13" s="7">
         <f>200*12</f>
         <v>2400</v>
       </c>
-      <c r="G13" s="7">
-        <f t="shared" ref="G13:H13" si="1">200*12</f>
+      <c r="I13" s="7">
+        <f t="shared" ref="I13:J13" si="1">200*12</f>
         <v>2400</v>
       </c>
-      <c r="H13" s="7">
+      <c r="J13" s="7">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7">
+      <c r="K13" s="7"/>
+      <c r="L13" s="7">
         <f>200*12</f>
         <v>2400</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="N13" s="7">
-        <f>E13-B13</f>
+      <c r="M13" s="7"/>
+      <c r="P13" s="7">
+        <f>G13-B13</f>
         <v>2400</v>
       </c>
-      <c r="O13" s="1" t="e">
-        <f>(E13-B13)/B13</f>
+      <c r="Q13" s="1" t="e">
+        <f>(G13-B13)/B13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="T13" t="s">
+      <c r="V13" t="s">
         <v>30</v>
       </c>
-      <c r="U13" t="s">
+      <c r="W13" t="s">
         <v>70</v>
       </c>
-      <c r="V13" s="7" t="s">
+      <c r="X13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="W13" t="s">
+      <c r="Y13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7">
-        <f>12*50</f>
-        <v>600</v>
-      </c>
-      <c r="F14" s="7">
-        <f>12*50</f>
-        <v>600</v>
-      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="7">
         <f>12*50</f>
         <v>600</v>
@@ -1440,43 +1531,43 @@
         <f>12*50</f>
         <v>600</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7">
+        <f>12*50</f>
+        <v>600</v>
+      </c>
+      <c r="J14" s="7">
+        <f>12*50</f>
+        <v>600</v>
+      </c>
       <c r="K14" s="7"/>
-      <c r="N14" s="7">
-        <f>E14-B14</f>
+      <c r="M14" s="7"/>
+      <c r="P14" s="7">
+        <f>G14-B14</f>
         <v>600</v>
       </c>
-      <c r="O14" s="1" t="e">
-        <f>(E14-B14)/B14</f>
+      <c r="Q14" s="1" t="e">
+        <f>(G14-B14)/B14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S14" t="s">
+      <c r="U14" t="s">
         <v>73</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>69</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>60</v>
       </c>
-      <c r="V14" s="1">
-        <f>U14/T14</f>
+      <c r="X14" s="1">
+        <f>W14/V14</f>
         <v>0.86956521739130432</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7">
-        <f>68*12</f>
-        <v>816</v>
-      </c>
-      <c r="F15" s="7">
-        <f>68*12</f>
-        <v>816</v>
-      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7">
         <f>68*12</f>
         <v>816</v>
@@ -1485,36 +1576,44 @@
         <f>68*12</f>
         <v>816</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7">
+        <f>68*12</f>
+        <v>816</v>
+      </c>
+      <c r="J15" s="7">
+        <f>68*12</f>
+        <v>816</v>
+      </c>
       <c r="K15" s="7"/>
-      <c r="N15" s="7">
-        <f>E15-B15</f>
+      <c r="M15" s="7"/>
+      <c r="P15" s="7">
+        <f>G15-B15</f>
         <v>816</v>
       </c>
-      <c r="O15" s="1" t="e">
-        <f>(E15-B15)/B15</f>
+      <c r="Q15" s="1" t="e">
+        <f>(G15-B15)/B15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S15" t="s">
+      <c r="U15" t="s">
         <v>75</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>48.77</v>
       </c>
-      <c r="U15">
-        <f>T15*V14</f>
+      <c r="W15">
+        <f>V15*X14</f>
         <v>42.408695652173911</v>
       </c>
-      <c r="V15" s="1">
-        <f>1-V14</f>
+      <c r="X15" s="1">
+        <f>1-X14</f>
         <v>0.13043478260869568</v>
       </c>
-      <c r="W15">
-        <f>T15*V18</f>
+      <c r="Y15">
+        <f>V15*X18</f>
         <v>37.044690624673912</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>26</v>
       </c>
@@ -1522,19 +1621,14 @@
         <v>390.24</v>
       </c>
       <c r="C17" s="7">
-        <f t="shared" ref="C17:H20" si="2">B17</f>
         <v>390.24</v>
       </c>
-      <c r="D17" s="7">
-        <f t="shared" si="2"/>
+      <c r="E17" s="7">
+        <f>B17</f>
         <v>390.24</v>
       </c>
-      <c r="E17" s="7">
-        <f t="shared" si="2"/>
-        <v>390.24</v>
-      </c>
       <c r="F17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F17:H20" si="2">E17</f>
         <v>390.24</v>
       </c>
       <c r="G17" s="7">
@@ -1545,27 +1639,35 @@
         <f t="shared" si="2"/>
         <v>390.24</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7">
+        <f t="shared" ref="I17:J20" si="3">H17</f>
+        <v>390.24</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="3"/>
+        <v>390.24</v>
+      </c>
       <c r="K17" s="7"/>
-      <c r="N17" s="7">
-        <f>E17-B17</f>
+      <c r="M17" s="7"/>
+      <c r="P17" s="7">
+        <f>G17-B17</f>
         <v>0</v>
       </c>
-      <c r="O17" s="1">
-        <f>(E17-B17)/B17</f>
+      <c r="Q17" s="1">
+        <f>(G17-B17)/B17</f>
         <v>0</v>
       </c>
-      <c r="T17" t="s">
+      <c r="V17" t="s">
         <v>82</v>
       </c>
-      <c r="U17" t="s">
+      <c r="W17" t="s">
         <v>72</v>
       </c>
-      <c r="V17" s="7" t="s">
+      <c r="X17" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>27</v>
       </c>
@@ -1573,15 +1675,10 @@
         <v>57.36</v>
       </c>
       <c r="C18" s="7">
-        <f t="shared" si="2"/>
         <v>57.36</v>
       </c>
-      <c r="D18" s="7">
-        <f t="shared" si="2"/>
-        <v>57.36</v>
-      </c>
       <c r="E18" s="7">
-        <f t="shared" si="2"/>
+        <f>B18</f>
         <v>57.36</v>
       </c>
       <c r="F18" s="7">
@@ -1596,33 +1693,41 @@
         <f t="shared" si="2"/>
         <v>57.36</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="7">
+        <f t="shared" si="3"/>
+        <v>57.36</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="3"/>
+        <v>57.36</v>
+      </c>
       <c r="K18" s="7"/>
-      <c r="N18" s="7">
-        <f>E18-B18</f>
+      <c r="M18" s="7"/>
+      <c r="P18" s="7">
+        <f>G18-B18</f>
         <v>0</v>
       </c>
-      <c r="O18" s="1">
-        <f>(E18-B18)/B18</f>
+      <c r="Q18" s="1">
+        <f>(G18-B18)/B18</f>
         <v>0</v>
       </c>
-      <c r="S18" t="s">
+      <c r="U18" t="s">
         <v>71</v>
       </c>
-      <c r="T18" s="37">
-        <f>W26</f>
+      <c r="V18" s="37">
+        <f>Y26</f>
         <v>0.10998575000000006</v>
       </c>
-      <c r="U18" s="37">
-        <f>V15</f>
+      <c r="W18" s="37">
+        <f>X15</f>
         <v>0.13043478260869568</v>
       </c>
-      <c r="V18" s="1">
-        <f>1-(U18+T18)</f>
+      <c r="X18" s="1">
+        <f>1-(W18+V18)</f>
         <v>0.75957946739130433</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>28</v>
       </c>
@@ -1630,15 +1735,10 @@
         <v>32.64</v>
       </c>
       <c r="C19" s="7">
-        <f t="shared" si="2"/>
         <v>32.64</v>
       </c>
-      <c r="D19" s="7">
-        <f t="shared" si="2"/>
-        <v>32.64</v>
-      </c>
       <c r="E19" s="7">
-        <f t="shared" si="2"/>
+        <f>B19</f>
         <v>32.64</v>
       </c>
       <c r="F19" s="7">
@@ -1653,19 +1753,27 @@
         <f t="shared" si="2"/>
         <v>32.64</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="7">
+        <f t="shared" si="3"/>
+        <v>32.64</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="3"/>
+        <v>32.64</v>
+      </c>
       <c r="K19" s="7"/>
-      <c r="N19" s="7">
-        <f>E19-B19</f>
+      <c r="M19" s="7"/>
+      <c r="P19" s="7">
+        <f>G19-B19</f>
         <v>0</v>
       </c>
-      <c r="O19" s="1">
-        <f>(E19-B19)/B19</f>
+      <c r="Q19" s="1">
+        <f>(G19-B19)/B19</f>
         <v>0</v>
       </c>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>8</v>
       </c>
@@ -1673,15 +1781,10 @@
         <v>5923.92</v>
       </c>
       <c r="C20" s="7">
-        <f t="shared" si="2"/>
         <v>5923.92</v>
       </c>
-      <c r="D20" s="7">
-        <f t="shared" si="2"/>
-        <v>5923.92</v>
-      </c>
       <c r="E20" s="7">
-        <f t="shared" si="2"/>
+        <f>B20</f>
         <v>5923.92</v>
       </c>
       <c r="F20" s="7">
@@ -1696,80 +1799,88 @@
         <f t="shared" si="2"/>
         <v>5923.92</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="7">
+        <f t="shared" si="3"/>
+        <v>5923.92</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="3"/>
+        <v>5923.92</v>
+      </c>
       <c r="K20" s="7"/>
-      <c r="N20" s="7">
-        <f>E20-B20</f>
+      <c r="M20" s="7"/>
+      <c r="P20" s="7">
+        <f>G20-B20</f>
         <v>0</v>
       </c>
-      <c r="O20" s="1">
-        <f>(E20-B20)/B20</f>
+      <c r="Q20" s="1">
+        <f>(G20-B20)/B20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="S21" s="3" t="s">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="W21" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="V21" s="9" t="s">
+      <c r="X21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="Y21" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
       <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="O22" s="1"/>
-      <c r="S22" t="s">
+      <c r="M22" s="7"/>
+      <c r="Q22" s="1"/>
+      <c r="U22" t="s">
         <v>76</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>60000</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>60000</v>
       </c>
-      <c r="V22" s="7">
-        <f>U22-T22</f>
+      <c r="X22" s="7">
+        <f>W22-V22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
       <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="O23" s="1"/>
-      <c r="S23" t="s">
+      <c r="M23" s="7"/>
+      <c r="Q23" s="1"/>
+      <c r="U23" t="s">
         <v>77</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>60000</v>
       </c>
-      <c r="U23">
-        <f>U22*1.07</f>
+      <c r="W23">
+        <f>W22*1.07</f>
         <v>64200.000000000007</v>
       </c>
-      <c r="V23" s="7">
-        <f t="shared" ref="V23:V25" si="3">U23-T23</f>
+      <c r="X23" s="7">
+        <f t="shared" ref="X23:X25" si="4">W23-V23</f>
         <v>4200.0000000000073</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>10</v>
       </c>
@@ -1778,106 +1889,110 @@
         <v>107606.59</v>
       </c>
       <c r="C24" s="7">
-        <f t="shared" ref="C24:E24" si="4">SUM(C4:C8)</f>
+        <f>SUM(C4:C8)</f>
+        <v>107606.59</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" ref="E24:G24" si="5">SUM(E4:E8)</f>
         <v>165600</v>
       </c>
-      <c r="D24" s="7">
+      <c r="F24" s="7">
+        <f t="shared" si="5"/>
+        <v>194600</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="5"/>
+        <v>258155</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" ref="H24" si="6">SUM(H4:H8)</f>
+        <v>227873.5788935326</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" ref="I24:J24" si="7">SUM(I4:I8)</f>
+        <v>256155</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="7"/>
+        <v>256155</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="P24" s="7">
+        <f>G24-B24</f>
+        <v>150548.41</v>
+      </c>
+      <c r="Q24" s="1">
+        <f>(G24-B24)/B24</f>
+        <v>1.3990631057075595</v>
+      </c>
+      <c r="U24" t="s">
+        <v>78</v>
+      </c>
+      <c r="V24">
+        <v>60000</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:W25" si="8">W23*1.07</f>
+        <v>68694.000000000015</v>
+      </c>
+      <c r="X24" s="7">
         <f t="shared" si="4"/>
-        <v>194600</v>
-      </c>
-      <c r="E24" s="7">
+        <v>8694.0000000000146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="Q25" s="1"/>
+      <c r="U25" t="s">
+        <v>79</v>
+      </c>
+      <c r="V25">
+        <v>60000</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="8"/>
+        <v>73502.580000000016</v>
+      </c>
+      <c r="X25" s="7">
         <f t="shared" si="4"/>
-        <v>245962.5</v>
-      </c>
-      <c r="F24" s="7">
-        <f t="shared" ref="F24" si="5">SUM(F4:F8)</f>
-        <v>218612.40623736414</v>
-      </c>
-      <c r="G24" s="7">
-        <f t="shared" ref="G24:H24" si="6">SUM(G4:G8)</f>
-        <v>243962.5</v>
-      </c>
-      <c r="H24" s="7">
-        <f t="shared" si="6"/>
-        <v>243962.5</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="N24" s="7">
-        <f>E24-B24</f>
-        <v>138355.91</v>
-      </c>
-      <c r="O24" s="1">
-        <f>(E24-B24)/B24</f>
-        <v>1.2857568481632957</v>
-      </c>
-      <c r="S24" t="s">
-        <v>78</v>
-      </c>
-      <c r="T24">
-        <v>60000</v>
-      </c>
-      <c r="U24">
-        <f t="shared" ref="U24:U25" si="7">U23*1.07</f>
-        <v>68694.000000000015</v>
-      </c>
-      <c r="V24" s="7">
-        <f t="shared" si="3"/>
-        <v>8694.0000000000146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="O25" s="1"/>
-      <c r="S25" t="s">
-        <v>79</v>
-      </c>
-      <c r="T25">
-        <v>60000</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="7"/>
-        <v>73502.580000000016</v>
-      </c>
-      <c r="V25" s="7">
-        <f t="shared" si="3"/>
         <v>13502.580000000016</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
       <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="O26" s="1"/>
-      <c r="T26">
-        <f>SUM(T22:T25)</f>
+      <c r="M26" s="7"/>
+      <c r="Q26" s="1"/>
+      <c r="V26">
+        <f>SUM(V22:V25)</f>
         <v>240000</v>
       </c>
-      <c r="U26">
-        <f>SUM(U22:U25)</f>
+      <c r="W26">
+        <f>SUM(W22:W25)</f>
         <v>266396.58</v>
       </c>
-      <c r="V26" s="7">
-        <f>U26-T26</f>
+      <c r="X26" s="7">
+        <f>W26-V26</f>
         <v>26396.580000000016</v>
       </c>
-      <c r="W26" s="1">
-        <f>(V26/T26)</f>
+      <c r="Y26" s="1">
+        <f>(X26/V26)</f>
         <v>0.10998575000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>4</v>
       </c>
@@ -1886,41 +2001,45 @@
         <v>-13200</v>
       </c>
       <c r="C27" s="7">
-        <f t="shared" ref="C27:H27" si="8">-(1600*12)</f>
+        <f>-(1100*12)</f>
+        <v>-13200</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" ref="E27:J27" si="9">-(1600*12)</f>
         <v>-19200</v>
       </c>
-      <c r="D27" s="7">
-        <f t="shared" si="8"/>
+      <c r="F27" s="7">
+        <f t="shared" si="9"/>
         <v>-19200</v>
       </c>
-      <c r="E27" s="7">
-        <f t="shared" si="8"/>
+      <c r="G27" s="7">
+        <f t="shared" si="9"/>
         <v>-19200</v>
       </c>
-      <c r="F27" s="7">
-        <f t="shared" si="8"/>
+      <c r="H27" s="7">
+        <f t="shared" si="9"/>
         <v>-19200</v>
       </c>
-      <c r="G27" s="7">
-        <f t="shared" si="8"/>
+      <c r="I27" s="7">
+        <f t="shared" si="9"/>
         <v>-19200</v>
       </c>
-      <c r="H27" s="7">
-        <f t="shared" si="8"/>
+      <c r="J27" s="7">
+        <f t="shared" si="9"/>
         <v>-19200</v>
       </c>
-      <c r="I27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="N27" s="7">
-        <f>E27-B27</f>
+      <c r="M27" s="7"/>
+      <c r="P27" s="7">
+        <f>G27-B27</f>
         <v>-6000</v>
       </c>
-      <c r="O27" s="1">
-        <f>(E27-B27)/B27</f>
+      <c r="Q27" s="1">
+        <f>(G27-B27)/B27</f>
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>5</v>
       </c>
@@ -1929,231 +2048,251 @@
         <v>-2400</v>
       </c>
       <c r="C28" s="7">
-        <f t="shared" ref="C28:H28" si="9">-(240*12)</f>
+        <f>-(200*12)</f>
+        <v>-2400</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" ref="E28:J28" si="10">-(240*12)</f>
         <v>-2880</v>
       </c>
-      <c r="D28" s="7">
-        <f t="shared" si="9"/>
+      <c r="F28" s="7">
+        <f t="shared" si="10"/>
         <v>-2880</v>
       </c>
-      <c r="E28" s="7">
-        <f t="shared" si="9"/>
+      <c r="G28" s="7">
+        <f t="shared" si="10"/>
         <v>-2880</v>
       </c>
-      <c r="F28" s="7">
-        <f t="shared" si="9"/>
+      <c r="H28" s="7">
+        <f t="shared" si="10"/>
         <v>-2880</v>
       </c>
-      <c r="G28" s="7">
-        <f t="shared" si="9"/>
+      <c r="I28" s="7">
+        <f t="shared" si="10"/>
         <v>-2880</v>
       </c>
-      <c r="H28" s="7">
-        <f t="shared" si="9"/>
+      <c r="J28" s="7">
+        <f t="shared" si="10"/>
         <v>-2880</v>
       </c>
-      <c r="I28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="N28" s="7">
-        <f>E28-B28</f>
+      <c r="M28" s="7"/>
+      <c r="P28" s="7">
+        <f>G28-B28</f>
         <v>-480</v>
       </c>
-      <c r="O28" s="1">
-        <f>(E28-B28)/B28</f>
+      <c r="Q28" s="1">
+        <f>(G28-B28)/B28</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="7">
-        <f>-(V5)</f>
+        <f>-($X$5)</f>
         <v>-960</v>
       </c>
       <c r="C29" s="7">
-        <f>-($V$4+$V$5)</f>
+        <f>-($X$5)</f>
+        <v>-960</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" ref="E29:J29" si="11">-($X$4+$X$5)</f>
         <v>-3560</v>
       </c>
-      <c r="D29" s="7">
-        <f t="shared" ref="D29:H29" si="10">-($V$4+$V$5)</f>
+      <c r="F29" s="7">
+        <f t="shared" si="11"/>
         <v>-3560</v>
       </c>
-      <c r="E29" s="7">
-        <f t="shared" si="10"/>
+      <c r="G29" s="7">
+        <f t="shared" si="11"/>
         <v>-3560</v>
       </c>
-      <c r="F29" s="7">
-        <f t="shared" si="10"/>
+      <c r="H29" s="7">
+        <f t="shared" si="11"/>
         <v>-3560</v>
       </c>
-      <c r="G29" s="7">
-        <f t="shared" si="10"/>
+      <c r="I29" s="7">
+        <f t="shared" si="11"/>
         <v>-3560</v>
       </c>
-      <c r="H29" s="7">
-        <f t="shared" si="10"/>
+      <c r="J29" s="7">
+        <f t="shared" si="11"/>
         <v>-3560</v>
       </c>
-      <c r="I29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="N29" s="7">
-        <f>E29-B29</f>
+      <c r="M29" s="7"/>
+      <c r="P29" s="7">
+        <f>G29-B29</f>
         <v>-2600</v>
       </c>
-      <c r="O29" s="1">
-        <f>(E29-B29)/B29</f>
+      <c r="Q29" s="1">
+        <f>(G29-B29)/B29</f>
         <v>2.7083333333333335</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
       <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M30" s="7"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
       <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M31" s="7"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="7">
-        <f t="shared" ref="B32:G32" si="11">SUM(B4:B20)</f>
+        <f>SUM(B4:B20)</f>
         <v>122410.75</v>
       </c>
       <c r="C32" s="7">
-        <f t="shared" si="11"/>
+        <f>SUM(C4:C20)</f>
+        <v>122410.75</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" ref="E32:I32" si="12">SUM(E4:E20)</f>
         <v>178004.16</v>
       </c>
-      <c r="D32" s="7">
-        <f t="shared" si="11"/>
+      <c r="F32" s="7">
+        <f t="shared" si="12"/>
         <v>207004.16</v>
       </c>
-      <c r="E32" s="7">
-        <f t="shared" si="11"/>
-        <v>258582.66</v>
-      </c>
-      <c r="F32" s="7">
-        <f t="shared" si="11"/>
-        <v>231232.56623736414</v>
-      </c>
       <c r="G32" s="7">
-        <f t="shared" si="11"/>
-        <v>256582.66</v>
+        <f t="shared" si="12"/>
+        <v>270775.15999999997</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" ref="H32" si="12">SUM(H4:H20)</f>
-        <v>256582.66</v>
-      </c>
-      <c r="I32" s="7"/>
+        <f t="shared" si="12"/>
+        <v>240493.7388935326</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="12"/>
+        <v>268775.15999999997</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" ref="J32" si="13">SUM(J4:J20)</f>
+        <v>268775.15999999997</v>
+      </c>
       <c r="K32" s="7"/>
-      <c r="N32" s="7">
-        <f>E32-B32</f>
-        <v>136171.91</v>
-      </c>
-      <c r="O32" s="1">
-        <f>(E32-B32)/B32</f>
-        <v>1.1124179044732592</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M32" s="7"/>
+      <c r="P32" s="7">
+        <f>G32-B32</f>
+        <v>148364.40999999997</v>
+      </c>
+      <c r="Q32" s="1">
+        <f>(G32-B32)/B32</f>
+        <v>1.212021084749501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="7">
-        <f t="shared" ref="B33:G33" si="13">SUM(B27:B29)</f>
+        <f>SUM(B27:B29)</f>
         <v>-16560</v>
       </c>
       <c r="C33" s="7">
-        <f t="shared" si="13"/>
+        <f>SUM(C27:C29)</f>
+        <v>-16560</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" ref="E33:I33" si="14">SUM(E27:E29)</f>
         <v>-25640</v>
       </c>
-      <c r="D33" s="7">
-        <f t="shared" si="13"/>
+      <c r="F33" s="7">
+        <f t="shared" si="14"/>
         <v>-25640</v>
       </c>
-      <c r="E33" s="7">
-        <f t="shared" si="13"/>
+      <c r="G33" s="7">
+        <f t="shared" si="14"/>
         <v>-25640</v>
       </c>
-      <c r="F33" s="7">
-        <f t="shared" si="13"/>
+      <c r="H33" s="7">
+        <f t="shared" si="14"/>
         <v>-25640</v>
       </c>
-      <c r="G33" s="7">
-        <f t="shared" si="13"/>
+      <c r="I33" s="7">
+        <f t="shared" si="14"/>
         <v>-25640</v>
       </c>
-      <c r="H33" s="7">
-        <f t="shared" ref="H33" si="14">SUM(H27:H29)</f>
+      <c r="J33" s="7">
+        <f t="shared" ref="J33" si="15">SUM(J27:J29)</f>
         <v>-25640</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="N33" s="7">
-        <f>E33-B33</f>
+      <c r="K33" s="1"/>
+      <c r="M33" s="7"/>
+      <c r="P33" s="7">
+        <f>G33-B33</f>
         <v>-9080</v>
       </c>
-      <c r="O33" s="1">
-        <f>(E33-B33)/B33</f>
+      <c r="Q33" s="1">
+        <f>(G33-B33)/B33</f>
         <v>0.54830917874396135</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="7">
-        <f t="shared" ref="B34:H34" si="15">SUM(B32:B33)</f>
+        <f>SUM(B32:B33)</f>
         <v>105850.75</v>
       </c>
       <c r="C34" s="7">
-        <f t="shared" si="15"/>
+        <f>SUM(C32:C33)</f>
+        <v>105850.75</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" ref="E34:J34" si="16">SUM(E32:E33)</f>
         <v>152364.16</v>
       </c>
-      <c r="D34" s="7">
-        <f t="shared" si="15"/>
+      <c r="F34" s="7">
+        <f t="shared" si="16"/>
         <v>181364.16</v>
       </c>
-      <c r="E34" s="7">
-        <f t="shared" si="15"/>
-        <v>232942.66</v>
-      </c>
-      <c r="F34" s="7">
-        <f t="shared" si="15"/>
-        <v>205592.56623736414</v>
-      </c>
       <c r="G34" s="7">
-        <f t="shared" si="15"/>
-        <v>230942.66</v>
+        <f t="shared" si="16"/>
+        <v>245135.15999999997</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" si="15"/>
-        <v>230942.66</v>
-      </c>
-      <c r="I34" s="7"/>
+        <f t="shared" si="16"/>
+        <v>214853.7388935326</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="16"/>
+        <v>243135.15999999997</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="16"/>
+        <v>243135.15999999997</v>
+      </c>
       <c r="K34" s="7"/>
-      <c r="N34" s="7">
-        <f>E34-B34</f>
-        <v>127091.91</v>
-      </c>
-      <c r="O34" s="1">
-        <f>(E34-B34)/B34</f>
-        <v>1.2006708502301591</v>
+      <c r="M34" s="7"/>
+      <c r="P34" s="7">
+        <f>G34-B34</f>
+        <v>139284.40999999997</v>
+      </c>
+      <c r="Q34" s="1">
+        <f>(G34-B34)/B34</f>
+        <v>1.3158566188713823</v>
       </c>
     </row>
   </sheetData>
@@ -2164,6 +2303,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2464,146 +2604,476 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3">
+        <v>109</v>
+      </c>
+      <c r="B3" s="45">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="43">
+        <v>94</v>
+      </c>
+      <c r="B4" s="46">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="45">
+        <v>283.61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>88</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="45">
+        <v>300</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45">
+        <v>260.3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="45">
+        <v>100</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45">
+        <v>51.02</v>
+      </c>
+      <c r="H6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="45">
+        <v>50</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="45">
+        <v>50</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="45">
+        <f>60*3</f>
+        <v>180</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45">
+        <f>SUM(B3:B9)</f>
+        <v>930</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="43">
+        <v>100</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <f>((1200+600)/25)*3</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19">
         <f>3*150</f>
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <f>60*3</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <f>((1200+600)/25)*3</f>
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16">
-        <f>3*150</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
+      <c r="B20">
         <f>4*60</f>
         <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="45">
+        <v>1451.66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>475</v>
+      </c>
+      <c r="H30">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2013</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="44">
+        <v>45000</v>
+      </c>
+      <c r="D2" s="1" t="e">
+        <f t="shared" ref="D2:D7" si="0">(C2-C1)/C1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:E7" si="1">(C2-$C$2)/$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2014</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="44">
+        <v>55000</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>2015</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="44">
+        <v>66000</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2016</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="44">
+        <v>90000</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5+1</f>
+        <v>2017</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="44">
+        <v>107607</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19563333333333333</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3912666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>A6+1</f>
+        <v>2018</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="44">
+        <v>261155</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4269331920785822</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8034444444444446</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>